--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il12b-Il12rb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il12b-Il12rb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.04992833333333333</v>
+        <v>1.284858666666667</v>
       </c>
       <c r="H2">
-        <v>0.149785</v>
+        <v>3.854576</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1866496666666667</v>
+        <v>0.2848286666666667</v>
       </c>
       <c r="N2">
-        <v>0.559949</v>
+        <v>0.854486</v>
       </c>
       <c r="O2">
-        <v>0.1052515138801798</v>
+        <v>0.08022967564521397</v>
       </c>
       <c r="P2">
-        <v>0.1052515138801798</v>
+        <v>0.08022967564521397</v>
       </c>
       <c r="Q2">
-        <v>0.009319106773888889</v>
+        <v>0.3659645808817779</v>
       </c>
       <c r="R2">
-        <v>0.08387196096500001</v>
+        <v>3.293681227936</v>
       </c>
       <c r="S2">
-        <v>0.1052515138801798</v>
+        <v>0.05475771739156228</v>
       </c>
       <c r="T2">
-        <v>0.1052515138801798</v>
+        <v>0.05475771739156228</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.04992833333333333</v>
+        <v>1.284858666666667</v>
       </c>
       <c r="H3">
-        <v>0.149785</v>
+        <v>3.854576</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.908219</v>
       </c>
       <c r="O3">
-        <v>0.5466470204341869</v>
+        <v>0.2730594381596053</v>
       </c>
       <c r="P3">
-        <v>0.546647020434187</v>
+        <v>0.2730594381596053</v>
       </c>
       <c r="Q3">
-        <v>0.04840084254611111</v>
+        <v>1.245550128904889</v>
       </c>
       <c r="R3">
-        <v>0.435607582915</v>
+        <v>11.209951160144</v>
       </c>
       <c r="S3">
-        <v>0.5466470204341869</v>
+        <v>0.1863663466865131</v>
       </c>
       <c r="T3">
-        <v>0.546647020434187</v>
+        <v>0.1863663466865131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.04992833333333333</v>
+        <v>1.284858666666667</v>
       </c>
       <c r="H4">
-        <v>0.149785</v>
+        <v>3.854576</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.112113</v>
+        <v>1.351483666666667</v>
       </c>
       <c r="N4">
-        <v>0.336339</v>
+        <v>4.054451</v>
       </c>
       <c r="O4">
-        <v>0.06322038065421277</v>
+        <v>0.3806818235166093</v>
       </c>
       <c r="P4">
-        <v>0.06322038065421277</v>
+        <v>0.3806818235166093</v>
       </c>
       <c r="Q4">
-        <v>0.005597615235</v>
+        <v>1.736465501975111</v>
       </c>
       <c r="R4">
-        <v>0.050378537115</v>
+        <v>15.628189517776</v>
       </c>
       <c r="S4">
-        <v>0.06322038065421277</v>
+        <v>0.2598199175129108</v>
       </c>
       <c r="T4">
-        <v>0.06322038065421277</v>
+        <v>0.2598199175129108</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.04992833333333333</v>
+        <v>1.284858666666667</v>
       </c>
       <c r="H5">
-        <v>0.149785</v>
+        <v>3.854576</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.201019</v>
+        <v>0.23571</v>
       </c>
       <c r="N5">
-        <v>0.603057</v>
+        <v>0.70713</v>
       </c>
       <c r="O5">
-        <v>0.1133543629974151</v>
+        <v>0.066394078474077</v>
       </c>
       <c r="P5">
-        <v>0.1133543629974151</v>
+        <v>0.066394078474077</v>
       </c>
       <c r="Q5">
-        <v>0.01003654363833333</v>
+        <v>0.30285403632</v>
       </c>
       <c r="R5">
-        <v>0.090328892745</v>
+        <v>2.72568632688</v>
       </c>
       <c r="S5">
-        <v>0.1133543629974151</v>
+        <v>0.04531475612133544</v>
       </c>
       <c r="T5">
-        <v>0.1133543629974151</v>
+        <v>0.04531475612133544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,371 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>1.284858666666667</v>
+      </c>
+      <c r="H6">
+        <v>3.854576</v>
+      </c>
+      <c r="I6">
+        <v>0.6825120125588942</v>
+      </c>
+      <c r="J6">
+        <v>0.6825120125588942</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.7087373333333332</v>
+      </c>
+      <c r="N6">
+        <v>2.126212</v>
+      </c>
+      <c r="O6">
+        <v>0.1996349842044944</v>
+      </c>
+      <c r="P6">
+        <v>0.1996349842044945</v>
+      </c>
+      <c r="Q6">
+        <v>0.9106273051235555</v>
+      </c>
+      <c r="R6">
+        <v>8.195645746112</v>
+      </c>
+      <c r="S6">
+        <v>0.1362532748465725</v>
+      </c>
+      <c r="T6">
+        <v>0.1362532748465726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.597685</v>
+      </c>
+      <c r="H7">
+        <v>1.793055</v>
+      </c>
+      <c r="I7">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="J7">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.2848286666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.854486</v>
+      </c>
+      <c r="O7">
+        <v>0.08022967564521397</v>
+      </c>
+      <c r="P7">
+        <v>0.08022967564521397</v>
+      </c>
+      <c r="Q7">
+        <v>0.1702378216366667</v>
+      </c>
+      <c r="R7">
+        <v>1.53214039473</v>
+      </c>
+      <c r="S7">
+        <v>0.02547195825365169</v>
+      </c>
+      <c r="T7">
+        <v>0.02547195825365169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.597685</v>
+      </c>
+      <c r="H8">
+        <v>1.793055</v>
+      </c>
+      <c r="I8">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="J8">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.9694063333333333</v>
+      </c>
+      <c r="N8">
+        <v>2.908219</v>
+      </c>
+      <c r="O8">
+        <v>0.2730594381596053</v>
+      </c>
+      <c r="P8">
+        <v>0.2730594381596053</v>
+      </c>
+      <c r="Q8">
+        <v>0.5793996243383334</v>
+      </c>
+      <c r="R8">
+        <v>5.214596619045</v>
+      </c>
+      <c r="S8">
+        <v>0.08669309147309219</v>
+      </c>
+      <c r="T8">
+        <v>0.08669309147309219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.04992833333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.149785</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.30418</v>
-      </c>
-      <c r="N6">
-        <v>0.91254</v>
-      </c>
-      <c r="O6">
-        <v>0.1715267220340053</v>
-      </c>
-      <c r="P6">
-        <v>0.1715267220340054</v>
-      </c>
-      <c r="Q6">
-        <v>0.01518720043333333</v>
-      </c>
-      <c r="R6">
-        <v>0.1366848039</v>
-      </c>
-      <c r="S6">
-        <v>0.1715267220340053</v>
-      </c>
-      <c r="T6">
-        <v>0.1715267220340054</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.597685</v>
+      </c>
+      <c r="H9">
+        <v>1.793055</v>
+      </c>
+      <c r="I9">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="J9">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.351483666666667</v>
+      </c>
+      <c r="N9">
+        <v>4.054451</v>
+      </c>
+      <c r="O9">
+        <v>0.3806818235166093</v>
+      </c>
+      <c r="P9">
+        <v>0.3806818235166093</v>
+      </c>
+      <c r="Q9">
+        <v>0.8077615153116667</v>
+      </c>
+      <c r="R9">
+        <v>7.269853637805</v>
+      </c>
+      <c r="S9">
+        <v>0.1208619060036985</v>
+      </c>
+      <c r="T9">
+        <v>0.1208619060036985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.597685</v>
+      </c>
+      <c r="H10">
+        <v>1.793055</v>
+      </c>
+      <c r="I10">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="J10">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.23571</v>
+      </c>
+      <c r="N10">
+        <v>0.70713</v>
+      </c>
+      <c r="O10">
+        <v>0.066394078474077</v>
+      </c>
+      <c r="P10">
+        <v>0.066394078474077</v>
+      </c>
+      <c r="Q10">
+        <v>0.14088033135</v>
+      </c>
+      <c r="R10">
+        <v>1.26792298215</v>
+      </c>
+      <c r="S10">
+        <v>0.02107932235274155</v>
+      </c>
+      <c r="T10">
+        <v>0.02107932235274155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.597685</v>
+      </c>
+      <c r="H11">
+        <v>1.793055</v>
+      </c>
+      <c r="I11">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="J11">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7087373333333332</v>
+      </c>
+      <c r="N11">
+        <v>2.126212</v>
+      </c>
+      <c r="O11">
+        <v>0.1996349842044944</v>
+      </c>
+      <c r="P11">
+        <v>0.1996349842044945</v>
+      </c>
+      <c r="Q11">
+        <v>0.4236016730733333</v>
+      </c>
+      <c r="R11">
+        <v>3.81241505766</v>
+      </c>
+      <c r="S11">
+        <v>0.06338170935792189</v>
+      </c>
+      <c r="T11">
+        <v>0.06338170935792191</v>
       </c>
     </row>
   </sheetData>
